--- a/EVANGILE platformer.xlsx
+++ b/EVANGILE platformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grego\Desktop\ETPA\SEMESTRE 2\MATIERES\DEV WEB\evangile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F64698-621C-4067-89AB-E181445FAB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C893A35-C861-4F43-8C48-A66AE5B84742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1380" windowWidth="21600" windowHeight="11385" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="174">
   <si>
     <t>https://brieux.github.io/plate-formmeur/index.html</t>
   </si>
@@ -423,12 +423,6 @@
     <t>https://davidborie.github.io/Platformer/</t>
   </si>
   <si>
-    <t>https://yvain16-69.github.io/Platformer/</t>
-  </si>
-  <si>
-    <t>27/01/20212</t>
-  </si>
-  <si>
     <t>A FAIRE 2</t>
   </si>
   <si>
@@ -478,6 +472,81 @@
   </si>
   <si>
     <t xml:space="preserve">joueur changé  … le reste est inchangé </t>
+  </si>
+  <si>
+    <t>A FAIRE 3</t>
+  </si>
+  <si>
+    <t>ETAT 3</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
+  </si>
+  <si>
+    <t>27/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ennemis différents avec anims différentes, ( attention 1 sort du cadre ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le perroquet ne doit pas sortir sinon OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 enne mis au lieu d'1 par rapport à hier  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter 3 nouveaux ennemis, avec 4 skin 4 différents et animations différentes </t>
+  </si>
+  <si>
+    <t>Problème resolu GG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ennemis différents ski et animations différentes </t>
+  </si>
+  <si>
+    <t>manque 1 moab originale avec 1 anime et 1 skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debug ennemi en bas à gauche Sinon OK </t>
+  </si>
+  <si>
+    <t>Manque 2 monstres nouvelles animations, nouveaux skins ( WTF la photo H.S )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on a 3 moabs, 3 animations différentes </t>
+  </si>
+  <si>
+    <t>Il manque 2 moab avec skin et animations ( attention le rendu c'est demain )</t>
+  </si>
+  <si>
+    <t>Attention les animations son égales.</t>
+  </si>
+  <si>
+    <t>Manque 2 ennemis skin et manque 3 animations différentes ** ATTENTION le rendu c'estd emain **</t>
+  </si>
+  <si>
+    <t>** LIEN NON FONCTIONNEL **</t>
+  </si>
+  <si>
+    <t>** CRÉER BON LIEN **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joueur changé? Fond changé, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">** LA CONSIGNE OU EST LE ZOO ? ** ajouter 5 ennemis avec 5 skins et 5 animations différentes </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>https://yvain16-69.github.io/Platformer-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a 3 moabs, 2 animations différentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter de nouveaux moabs avec nouvelles animations </t>
   </si>
 </sst>
 </file>
@@ -537,7 +606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +640,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -712,12 +799,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -727,12 +808,119 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -755,20 +943,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -972,19 +1146,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5B44227-2E4E-4EC8-BC64-79250E39E56C}" name="Tableau2" displayName="Tableau2" ref="B3:K26" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="B3:K26" xr:uid="{A8C2764C-7616-4DA1-A154-45999E2A87A6}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BF9A272F-EC84-4733-8C4D-95D2E0BD6ECC}" name="Prénom" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9BCAAA25-8938-4F00-90B6-413A2F5C90A1}" name="NOM" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{425FFA14-2230-494C-B6C3-023D11E12CBE}" name="GitHub" dataDxfId="7" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="4" xr3:uid="{A4348D82-2FCF-46AD-A0A9-9E71011DC8A7}" name="Pong" dataDxfId="6" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="5" xr3:uid="{E0FD8155-82FC-4251-8BCD-EA82B953C969}" name="26/01/2021" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{77313C82-6C41-4784-9E56-6D53665929D8}" name="A FAIRE " dataDxfId="4" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="7" xr3:uid="{F3D8DC3F-D56F-476B-B30D-C978611C38A8}" name="ETAT" dataDxfId="3" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="8" xr3:uid="{1281AA93-8DDC-4F5C-9B3B-EB97F4B2DB35}" name="27/01/20212" dataDxfId="2" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="9" xr3:uid="{C53E5F2E-3842-4389-B683-CBC80E3BAE8A}" name="A FAIRE 2" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="10" xr3:uid="{00683305-61D1-43AE-872E-49A94AC31108}" name="ETAT2" dataDxfId="1" dataCellStyle="Lien hypertexte"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5B44227-2E4E-4EC8-BC64-79250E39E56C}" name="Tableau2" displayName="Tableau2" ref="B3:N26" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="B3:N26" xr:uid="{A8C2764C-7616-4DA1-A154-45999E2A87A6}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{BF9A272F-EC84-4733-8C4D-95D2E0BD6ECC}" name="Prénom" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9BCAAA25-8938-4F00-90B6-413A2F5C90A1}" name="NOM" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{425FFA14-2230-494C-B6C3-023D11E12CBE}" name="GitHub" dataDxfId="9" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="4" xr3:uid="{A4348D82-2FCF-46AD-A0A9-9E71011DC8A7}" name="Pong" dataDxfId="8" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="5" xr3:uid="{E0FD8155-82FC-4251-8BCD-EA82B953C969}" name="26/01/2021" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{77313C82-6C41-4784-9E56-6D53665929D8}" name="A FAIRE " dataDxfId="6" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="7" xr3:uid="{F3D8DC3F-D56F-476B-B30D-C978611C38A8}" name="ETAT" dataDxfId="5" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="8" xr3:uid="{1281AA93-8DDC-4F5C-9B3B-EB97F4B2DB35}" name="27/01/2021" dataDxfId="4" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="9" xr3:uid="{C53E5F2E-3842-4389-B683-CBC80E3BAE8A}" name="A FAIRE 2" dataDxfId="3" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="10" xr3:uid="{00683305-61D1-43AE-872E-49A94AC31108}" name="ETAT2" dataDxfId="2" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="11" xr3:uid="{4C96FD26-605F-49C0-8CCC-D17D022F84B8}" name="28/01/2021" dataDxfId="1" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="12" xr3:uid="{9740D232-5CCF-4369-B873-4C30986BA712}" name="A FAIRE 3" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="13" xr3:uid="{A579FEF2-97F2-47E5-8832-55371B3B0656}" name="ETAT 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1253,11 +1430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,19 +1449,20 @@
     <col min="9" max="9" width="44" customWidth="1"/>
     <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="14" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="22" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>75</v>
       </c>
@@ -1304,19 +1482,28 @@
         <v>113</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>79</v>
       </c>
@@ -1339,16 +1526,25 @@
         <v>115</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1371,16 +1567,25 @@
         <v>115</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1403,16 +1608,25 @@
         <v>115</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1435,16 +1649,25 @@
         <v>115</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1467,16 +1690,25 @@
         <v>115</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1499,16 +1731,25 @@
         <v>115</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1531,16 +1772,25 @@
         <v>115</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1563,16 +1813,25 @@
         <v>115</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1595,16 +1854,25 @@
         <v>115</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
@@ -1627,16 +1895,25 @@
         <v>115</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
@@ -1659,16 +1936,25 @@
         <v>115</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
@@ -1691,16 +1977,25 @@
         <v>115</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
@@ -1723,7 +2018,7 @@
         <v>115</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>130</v>
@@ -1731,8 +2026,17 @@
       <c r="K16" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
@@ -1755,7 +2059,7 @@
         <v>115</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>120</v>
@@ -1763,8 +2067,17 @@
       <c r="K17" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>49</v>
       </c>
@@ -1787,16 +2100,25 @@
         <v>115</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
@@ -1819,16 +2141,25 @@
         <v>115</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>57</v>
       </c>
@@ -1851,7 +2182,7 @@
         <v>115</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>127</v>
@@ -1859,8 +2190,17 @@
       <c r="K20" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
@@ -1883,7 +2223,7 @@
         <v>115</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>128</v>
@@ -1891,8 +2231,17 @@
       <c r="K21" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
@@ -1915,16 +2264,25 @@
         <v>115</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>68</v>
       </c>
@@ -1947,7 +2305,7 @@
         <v>115</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>120</v>
@@ -1955,8 +2313,17 @@
       <c r="K23" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
@@ -1979,16 +2346,25 @@
         <v>115</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>81</v>
       </c>
@@ -1999,7 +2375,7 @@
         <v>83</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>112</v>
@@ -2011,16 +2387,25 @@
         <v>115</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>84</v>
       </c>
@@ -2043,7 +2428,7 @@
         <v>115</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>120</v>
@@ -2051,38 +2436,47 @@
       <c r="K26" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="L26" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2095,9 +2489,6 @@
       <c r="H33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:K2"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="https://github.com/Brieux" xr:uid="{745F96ED-1B94-4DDE-87B4-B7047EB0CA0F}"/>
@@ -2144,13 +2535,12 @@
     <hyperlink ref="D25" r:id="rId42" display="https://github.com/Yvain16-69" xr:uid="{60861BDA-7B12-4562-9ECD-A7FADF839FF9}"/>
     <hyperlink ref="D26" r:id="rId43" display="https://github.com/DavidBorie" xr:uid="{91EA452C-72AD-452D-AB07-807400325CDB}"/>
     <hyperlink ref="E20" r:id="rId44" xr:uid="{7B787C3D-27A0-4A5F-9118-56C0683622BE}"/>
-    <hyperlink ref="E25" r:id="rId45" xr:uid="{DC315A1E-0586-479E-95D5-C454D9243AAF}"/>
-    <hyperlink ref="E26" r:id="rId46" xr:uid="{FDBDE950-71C9-4D7C-89F0-BF1014CA4C26}"/>
+    <hyperlink ref="E26" r:id="rId45" xr:uid="{FDBDE950-71C9-4D7C-89F0-BF1014CA4C26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId46"/>
   <tableParts count="1">
-    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
 </worksheet>
 </file>